--- a/Registration/wwwroot/Studentlist.xlsx
+++ b/Registration/wwwroot/Studentlist.xlsx
@@ -12,18 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="319">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
-    <t xml:space="preserve">FirstName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LastName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DisplayName</t>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Display Name</t>
   </si>
   <si>
     <t xml:space="preserve">Gender</t>
@@ -35,7 +35,175 @@
     <t xml:space="preserve">Address</t>
   </si>
   <si>
-    <t xml:space="preserve">Username</t>
+    <t xml:space="preserve">User Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">School Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANANYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANANYA GOEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanag190003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHANYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHANYA SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanss190050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHIVAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHIVAM SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanss190052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUMIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUMIL SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanss190053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWETAKSHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OJHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWETAKSHI OJHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanso190054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAYYAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VANYA NAYYAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanvn190056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YADAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARUN YADAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanvy190057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISHWJEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DABAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VISHWJEET DABAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanvd190059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUVRAJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SINGH SHISHODIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YUVRAJ SINGH SHISHODIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanys190060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADITYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISHRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADITYA MISHRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanam190062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEEPANSHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEEPANSHU SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sands190063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISHITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISHITA YADAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanmy190065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISHABH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROUSHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISHABH ROUSHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanrr190066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVIK GARG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanag190068</t>
   </si>
   <si>
     <t xml:space="preserve">Paras</t>
@@ -47,25 +215,31 @@
     <t xml:space="preserve">Paras Singh</t>
   </si>
   <si>
-    <t xml:space="preserve">Male</t>
-  </si>
-  <si>
     <t xml:space="preserve">25-10-1992 00:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">parassingh</t>
   </si>
   <si>
-    <t xml:space="preserve">ANANYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANANYA GOEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanag190003</t>
+    <t xml:space="preserve">SATYAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sans190049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLIYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGAD GOLIYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanag190026</t>
   </si>
   <si>
     <t xml:space="preserve">AARADHAYA</t>
@@ -128,9 +302,6 @@
     <t xml:space="preserve">BHAVYA</t>
   </si>
   <si>
-    <t xml:space="preserve">YADAV</t>
-  </si>
-  <si>
     <t xml:space="preserve">BHAVYA YADAV</t>
   </si>
   <si>
@@ -140,9 +311,6 @@
     <t xml:space="preserve">BHOUMIK</t>
   </si>
   <si>
-    <t xml:space="preserve">SINGH</t>
-  </si>
-  <si>
     <t xml:space="preserve">BHOUMIK SINGH</t>
   </si>
   <si>
@@ -230,6 +398,48 @@
     <t xml:space="preserve">sanmm190015</t>
   </si>
   <si>
+    <t xml:space="preserve">ANVEKSHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANVEKSHA SINGH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanas190081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANISHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANISHA SHARMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sands190082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIYA GARG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandg190083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIYANSHI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanp190078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIYATI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIYATI YADAV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanny190042</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOULIK</t>
   </si>
   <si>
@@ -290,18 +500,12 @@
     <t xml:space="preserve">VAIBHAVI</t>
   </si>
   <si>
-    <t xml:space="preserve">SHARMA</t>
-  </si>
-  <si>
     <t xml:space="preserve">VAIBHAVI SHARMA</t>
   </si>
   <si>
     <t xml:space="preserve">sanvs190022</t>
   </si>
   <si>
-    <t xml:space="preserve">ADITYA</t>
-  </si>
-  <si>
     <t xml:space="preserve">BAMAL</t>
   </si>
   <si>
@@ -311,27 +515,6 @@
     <t xml:space="preserve">sanab190023</t>
   </si>
   <si>
-    <t xml:space="preserve">SATYAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sans190049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOLIYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANGAD GOLIYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanag190026</t>
-  </si>
-  <si>
     <t xml:space="preserve">ANIKET</t>
   </si>
   <si>
@@ -362,9 +545,6 @@
     <t xml:space="preserve">sanag190030</t>
   </si>
   <si>
-    <t xml:space="preserve">GARG</t>
-  </si>
-  <si>
     <t xml:space="preserve">BHAVYA GARG</t>
   </si>
   <si>
@@ -434,15 +614,6 @@
     <t xml:space="preserve">sanms190040</t>
   </si>
   <si>
-    <t xml:space="preserve">NIYATI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIYATI YADAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanny190042</t>
-  </si>
-  <si>
     <t xml:space="preserve">PALAK</t>
   </si>
   <si>
@@ -485,136 +656,22 @@
     <t xml:space="preserve">sansy190048</t>
   </si>
   <si>
-    <t xml:space="preserve">SHANYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHANYA SHARMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanss190050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHIVAM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHIVAM SINGH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanss190052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOUMIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOUMIL SINGH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanss190053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWETAKSHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OJHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SWETAKSHI OJHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanso190054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAYYAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VANYA NAYYAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanvn190056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARUN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VARUN YADAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanvy190057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISHWJEET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DABAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VISHWJEET DABAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanvd190059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YUVRAJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SINGH SHISHODIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YUVRAJ SINGH SHISHODIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanys190060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISHRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADITYA MISHRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanam190062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEEPANSHU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEEPANSHU SHARMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sands190063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISHITA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MISHITA YADAV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanmy190065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RISHABH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUSHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RISHABH ROUSHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanrr190066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVIK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADVIK GARG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanag190068</t>
+    <t xml:space="preserve">aa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-10-1999 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asd</t>
   </si>
   <si>
     <t xml:space="preserve">ASHMIT</t>
@@ -912,39 +969,6 @@
   </si>
   <si>
     <t xml:space="preserve">sanss190080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANVEKSHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANVEKSHA SINGH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanas190081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANISHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANISHA SHARMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sands190082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIYA GARG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandg190083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIYANSHI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanp190078</t>
   </si>
 </sst>
 </file>
@@ -1019,30 +1043,32 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F2"/>
       <c r="G2"/>
       <c r="H2" t="s">
         <v>13</v>
       </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3">
@@ -1057,12 +1083,15 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="s">
         <v>17</v>
       </c>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4">
@@ -1078,33 +1107,37 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I4"/>
     </row>
     <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E5"/>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5" t="s">
         <v>25</v>
       </c>
+      <c r="I5"/>
     </row>
     <row r="6">
       <c r="A6">
@@ -1119,12 +1152,15 @@
       <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6"/>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6" t="s">
         <v>29</v>
       </c>
+      <c r="I6"/>
     </row>
     <row r="7">
       <c r="A7">
@@ -1134,117 +1170,135 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7"/>
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I7"/>
     </row>
     <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8"/>
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>36</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="I8"/>
     </row>
     <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9"/>
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
       <c r="F9"/>
       <c r="G9"/>
       <c r="H9" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="I9"/>
     </row>
     <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10"/>
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>44</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="I10"/>
     </row>
     <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11"/>
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="I11"/>
     </row>
     <row r="12">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
         <v>51</v>
       </c>
-      <c r="E12"/>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="H12" t="s">
         <v>52</v>
       </c>
+      <c r="I12"/>
     </row>
     <row r="13">
       <c r="A13">
@@ -1254,97 +1308,112 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13"/>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I13"/>
     </row>
     <row r="14">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14"/>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>60</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="I14"/>
     </row>
     <row r="15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>62</v>
       </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15"/>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I15"/>
     </row>
     <row r="16">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
         <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>66</v>
       </c>
       <c r="E16"/>
-      <c r="F16"/>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>67</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="I16"/>
     </row>
     <row r="17">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
         <v>69</v>
       </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17"/>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17" t="s">
         <v>71</v>
       </c>
+      <c r="I17"/>
     </row>
     <row r="18">
       <c r="A18">
@@ -1359,12 +1428,15 @@
       <c r="D18" t="s">
         <v>74</v>
       </c>
-      <c r="E18"/>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18" t="s">
         <v>75</v>
       </c>
+      <c r="I18"/>
     </row>
     <row r="19">
       <c r="A19">
@@ -1379,12 +1451,15 @@
       <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="E19"/>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19" t="s">
         <v>79</v>
       </c>
+      <c r="I19"/>
     </row>
     <row r="20">
       <c r="A20">
@@ -1399,12 +1474,15 @@
       <c r="D20" t="s">
         <v>82</v>
       </c>
-      <c r="E20"/>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20" t="s">
         <v>83</v>
       </c>
+      <c r="I20"/>
     </row>
     <row r="21">
       <c r="A21">
@@ -1414,37 +1492,43 @@
         <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21"/>
+        <v>86</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>86</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="I21"/>
     </row>
     <row r="22">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
         <v>89</v>
       </c>
-      <c r="E22"/>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22" t="s">
         <v>90</v>
       </c>
+      <c r="I22"/>
     </row>
     <row r="23">
       <c r="A23">
@@ -1459,12 +1543,15 @@
       <c r="D23" t="s">
         <v>93</v>
       </c>
-      <c r="E23"/>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23" t="s">
         <v>94</v>
       </c>
+      <c r="I23"/>
     </row>
     <row r="24">
       <c r="A24">
@@ -1474,97 +1561,112 @@
         <v>95</v>
       </c>
       <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
         <v>96</v>
       </c>
-      <c r="D24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24"/>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24" t="s">
-        <v>98</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="I24"/>
     </row>
     <row r="25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
         <v>99</v>
       </c>
-      <c r="E25"/>
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>101</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="I25"/>
     </row>
     <row r="26">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
         <v>102</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>103</v>
       </c>
-      <c r="D26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26"/>
+      <c r="E26" t="s">
+        <v>21</v>
+      </c>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>105</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="I26"/>
     </row>
     <row r="27">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
         <v>106</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>107</v>
       </c>
-      <c r="D27" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27"/>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>109</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="I27"/>
     </row>
     <row r="28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
         <v>110</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28" t="s">
         <v>112</v>
       </c>
+      <c r="I28"/>
     </row>
     <row r="29">
       <c r="A29">
@@ -1574,117 +1676,135 @@
         <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29"/>
+        <v>115</v>
+      </c>
+      <c r="E29" t="s">
+        <v>21</v>
+      </c>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>115</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="I29"/>
     </row>
     <row r="30">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30"/>
+        <v>119</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>118</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="I30"/>
     </row>
     <row r="31">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31"/>
+        <v>122</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31" t="s">
-        <v>121</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="I31"/>
     </row>
     <row r="32">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32"/>
+        <v>126</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32" t="s">
-        <v>125</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="I32"/>
     </row>
     <row r="33">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33"/>
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33" t="s">
-        <v>129</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I33"/>
     </row>
     <row r="34">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
       <c r="D34" t="s">
         <v>132</v>
       </c>
-      <c r="E34"/>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34" t="s">
         <v>133</v>
       </c>
+      <c r="I34"/>
     </row>
     <row r="35">
       <c r="A35">
@@ -1694,77 +1814,89 @@
         <v>134</v>
       </c>
       <c r="C35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
         <v>135</v>
       </c>
-      <c r="D35" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35"/>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35" t="s">
-        <v>137</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="I35"/>
     </row>
     <row r="36">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36"/>
+        <v>137</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36" t="s">
-        <v>139</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="I36"/>
     </row>
     <row r="37">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
         <v>140</v>
       </c>
-      <c r="C37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" t="s">
-        <v>141</v>
-      </c>
-      <c r="E37"/>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37" t="s">
-        <v>142</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="I37"/>
     </row>
     <row r="38">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" t="s">
         <v>143</v>
-      </c>
-      <c r="C38" t="s">
-        <v>23</v>
       </c>
       <c r="D38" t="s">
         <v>144</v>
       </c>
-      <c r="E38"/>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38" t="s">
         <v>145</v>
       </c>
+      <c r="I38"/>
     </row>
     <row r="39">
       <c r="A39">
@@ -1779,12 +1911,15 @@
       <c r="D39" t="s">
         <v>148</v>
       </c>
-      <c r="E39"/>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39" t="s">
         <v>149</v>
       </c>
+      <c r="I39"/>
     </row>
     <row r="40">
       <c r="A40">
@@ -1799,12 +1934,15 @@
       <c r="D40" t="s">
         <v>152</v>
       </c>
-      <c r="E40"/>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
       <c r="F40"/>
       <c r="G40"/>
       <c r="H40" t="s">
         <v>153</v>
       </c>
+      <c r="I40"/>
     </row>
     <row r="41">
       <c r="A41">
@@ -1814,17 +1952,20 @@
         <v>154</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
         <v>155</v>
       </c>
-      <c r="E41"/>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
       <c r="F41"/>
       <c r="G41"/>
       <c r="H41" t="s">
         <v>156</v>
       </c>
+      <c r="I41"/>
     </row>
     <row r="42">
       <c r="A42">
@@ -1834,97 +1975,112 @@
         <v>157</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42"/>
+        <v>159</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42" t="s">
-        <v>159</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="I42"/>
     </row>
     <row r="43">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43"/>
+        <v>162</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43" t="s">
-        <v>162</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="I43"/>
     </row>
     <row r="44">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
-      </c>
-      <c r="E44"/>
+        <v>165</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
       <c r="F44"/>
       <c r="G44"/>
       <c r="H44" t="s">
-        <v>165</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="I44"/>
     </row>
     <row r="45">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
-      </c>
-      <c r="E45"/>
+        <v>169</v>
+      </c>
+      <c r="E45" t="s">
+        <v>21</v>
+      </c>
       <c r="F45"/>
       <c r="G45"/>
       <c r="H45" t="s">
-        <v>169</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="I45"/>
     </row>
     <row r="46">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="D46" t="s">
         <v>172</v>
       </c>
-      <c r="E46"/>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46" t="s">
         <v>173</v>
       </c>
+      <c r="I46"/>
     </row>
     <row r="47">
       <c r="A47">
@@ -1934,117 +2090,135 @@
         <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="D47" t="s">
         <v>175</v>
       </c>
-      <c r="E47"/>
+      <c r="E47" t="s">
+        <v>21</v>
+      </c>
       <c r="F47"/>
       <c r="G47"/>
       <c r="H47" t="s">
         <v>176</v>
       </c>
+      <c r="I47"/>
     </row>
     <row r="48">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
         <v>177</v>
       </c>
-      <c r="C48" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" t="s">
-        <v>179</v>
-      </c>
-      <c r="E48"/>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48" t="s">
-        <v>180</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="I48"/>
     </row>
     <row r="49">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
-      </c>
-      <c r="E49"/>
+        <v>180</v>
+      </c>
+      <c r="E49" t="s">
+        <v>21</v>
+      </c>
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49" t="s">
-        <v>184</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="I49"/>
     </row>
     <row r="50">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D50" t="s">
-        <v>186</v>
-      </c>
-      <c r="E50"/>
+        <v>184</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50" t="s">
-        <v>187</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="I50"/>
     </row>
     <row r="51">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" t="s">
         <v>188</v>
       </c>
-      <c r="C51" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" t="s">
-        <v>189</v>
-      </c>
-      <c r="E51"/>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51" t="s">
-        <v>190</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="I51"/>
     </row>
     <row r="52">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" t="s">
         <v>191</v>
-      </c>
-      <c r="C52" t="s">
-        <v>38</v>
       </c>
       <c r="D52" t="s">
         <v>192</v>
       </c>
-      <c r="E52"/>
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52" t="s">
         <v>193</v>
       </c>
+      <c r="I52"/>
     </row>
     <row r="53">
       <c r="A53">
@@ -2059,312 +2233,364 @@
       <c r="D53" t="s">
         <v>196</v>
       </c>
-      <c r="E53"/>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53" t="s">
         <v>197</v>
       </c>
+      <c r="I53"/>
     </row>
     <row r="54">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
         <v>198</v>
       </c>
-      <c r="C54" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" t="s">
-        <v>199</v>
-      </c>
-      <c r="E54"/>
+      <c r="E54" t="s">
+        <v>21</v>
+      </c>
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54" t="s">
-        <v>200</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="I54"/>
     </row>
     <row r="55">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
         <v>201</v>
       </c>
-      <c r="C55" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" t="s">
-        <v>203</v>
-      </c>
-      <c r="E55"/>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55" t="s">
-        <v>204</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="I55"/>
     </row>
     <row r="56">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" t="s">
         <v>205</v>
       </c>
-      <c r="C56" t="s">
-        <v>206</v>
-      </c>
-      <c r="D56" t="s">
-        <v>207</v>
-      </c>
-      <c r="E56"/>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56" t="s">
-        <v>208</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="I56"/>
     </row>
     <row r="57">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" t="s">
         <v>209</v>
       </c>
-      <c r="C57" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" t="s">
-        <v>211</v>
-      </c>
-      <c r="E57"/>
+      <c r="E57" t="s">
+        <v>21</v>
+      </c>
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>212</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="I57"/>
     </row>
     <row r="58">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>214</v>
-      </c>
-      <c r="E58"/>
+        <v>212</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58" t="s">
-        <v>215</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="I58"/>
     </row>
     <row r="59">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" t="s">
+        <v>215</v>
+      </c>
+      <c r="D59" t="s">
         <v>216</v>
       </c>
-      <c r="C59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>217</v>
       </c>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
+      <c r="F59" t="s">
+        <v>218</v>
+      </c>
+      <c r="G59" t="s">
+        <v>219</v>
+      </c>
       <c r="H59" t="s">
-        <v>218</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="I59"/>
     </row>
     <row r="60">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D60" t="s">
-        <v>221</v>
-      </c>
-      <c r="E60"/>
+        <v>222</v>
+      </c>
+      <c r="E60" t="s">
+        <v>21</v>
+      </c>
       <c r="F60"/>
       <c r="G60"/>
       <c r="H60" t="s">
-        <v>222</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="I60"/>
     </row>
     <row r="61">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="D61" t="s">
-        <v>223</v>
-      </c>
-      <c r="E61"/>
+        <v>226</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61" t="s">
-        <v>224</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="I61"/>
     </row>
     <row r="62">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="D62" t="s">
-        <v>226</v>
-      </c>
-      <c r="E62"/>
+        <v>230</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
       <c r="F62"/>
       <c r="G62"/>
       <c r="H62" t="s">
-        <v>227</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="I62"/>
     </row>
     <row r="63">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D63" t="s">
-        <v>229</v>
-      </c>
-      <c r="E63"/>
+        <v>233</v>
+      </c>
+      <c r="E63" t="s">
+        <v>21</v>
+      </c>
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63" t="s">
-        <v>230</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="I63"/>
     </row>
     <row r="64">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C64" t="s">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
-      </c>
-      <c r="E64"/>
+        <v>236</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64" t="s">
-        <v>234</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="I64"/>
     </row>
     <row r="65">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C65" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D65" t="s">
-        <v>237</v>
-      </c>
-      <c r="E65"/>
+        <v>240</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65" t="s">
-        <v>238</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="I65"/>
     </row>
     <row r="66">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>240</v>
-      </c>
-      <c r="E66"/>
+        <v>242</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66" t="s">
-        <v>241</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="I66"/>
     </row>
     <row r="67">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C67" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>244</v>
-      </c>
-      <c r="E67"/>
+        <v>245</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67" t="s">
-        <v>245</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="I67"/>
     </row>
     <row r="68">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C68" t="s">
-        <v>247</v>
+        <v>81</v>
       </c>
       <c r="D68" t="s">
         <v>248</v>
       </c>
-      <c r="E68"/>
+      <c r="E68" t="s">
+        <v>21</v>
+      </c>
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68" t="s">
         <v>249</v>
       </c>
+      <c r="I68"/>
     </row>
     <row r="69">
       <c r="A69">
@@ -2374,377 +2600,457 @@
         <v>250</v>
       </c>
       <c r="C69" t="s">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="D69" t="s">
-        <v>251</v>
-      </c>
-      <c r="E69"/>
+        <v>252</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69" t="s">
-        <v>252</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="I69"/>
     </row>
     <row r="70">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C70" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D70" t="s">
-        <v>255</v>
-      </c>
-      <c r="E70"/>
+        <v>256</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
       <c r="F70"/>
       <c r="G70"/>
       <c r="H70" t="s">
-        <v>256</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="I70"/>
     </row>
     <row r="71">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="C71" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>257</v>
-      </c>
-      <c r="E71"/>
+        <v>259</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71" t="s">
-        <v>258</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="I71"/>
     </row>
     <row r="72">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
-      </c>
-      <c r="E72"/>
+        <v>263</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72" t="s">
-        <v>262</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="I72"/>
     </row>
     <row r="73">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C73" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D73" t="s">
-        <v>265</v>
-      </c>
-      <c r="E73"/>
+        <v>267</v>
+      </c>
+      <c r="E73" t="s">
+        <v>21</v>
+      </c>
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73" t="s">
-        <v>266</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="I73"/>
     </row>
     <row r="74">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="D74" t="s">
-        <v>268</v>
-      </c>
-      <c r="E74"/>
+        <v>270</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
       <c r="F74"/>
       <c r="G74"/>
       <c r="H74" t="s">
-        <v>269</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="I74"/>
     </row>
     <row r="75">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>273</v>
       </c>
       <c r="D75" t="s">
-        <v>271</v>
-      </c>
-      <c r="E75"/>
+        <v>274</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
       <c r="F75"/>
       <c r="G75"/>
       <c r="H75" t="s">
-        <v>272</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="I75"/>
     </row>
     <row r="76">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>239</v>
       </c>
       <c r="D76" t="s">
-        <v>274</v>
-      </c>
-      <c r="E76"/>
+        <v>276</v>
+      </c>
+      <c r="E76" t="s">
+        <v>21</v>
+      </c>
       <c r="F76"/>
       <c r="G76"/>
       <c r="H76" t="s">
-        <v>275</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="I76"/>
     </row>
     <row r="77">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C77" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D77" t="s">
-        <v>278</v>
-      </c>
-      <c r="E77"/>
+        <v>280</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77" t="s">
-        <v>279</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="I77"/>
     </row>
     <row r="78">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>95</v>
+        <v>282</v>
       </c>
       <c r="C78" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D78" t="s">
-        <v>281</v>
-      </c>
-      <c r="E78"/>
+        <v>284</v>
+      </c>
+      <c r="E78" t="s">
+        <v>21</v>
+      </c>
       <c r="F78"/>
       <c r="G78"/>
       <c r="H78" t="s">
-        <v>282</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="I78"/>
     </row>
     <row r="79">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C79" t="s">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="D79" t="s">
-        <v>285</v>
-      </c>
-      <c r="E79"/>
+        <v>287</v>
+      </c>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79" t="s">
-        <v>286</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="I79"/>
     </row>
     <row r="80">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C80" t="s">
         <v>81</v>
       </c>
       <c r="D80" t="s">
-        <v>288</v>
-      </c>
-      <c r="E80"/>
+        <v>290</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80" t="s">
-        <v>289</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="I80"/>
     </row>
     <row r="81">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D81" t="s">
-        <v>291</v>
-      </c>
-      <c r="E81"/>
+        <v>293</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81" t="s">
-        <v>292</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="I81"/>
     </row>
     <row r="82">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C82" t="s">
-        <v>92</v>
+        <v>296</v>
       </c>
       <c r="D82" t="s">
-        <v>294</v>
-      </c>
-      <c r="E82"/>
+        <v>297</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82" t="s">
-        <v>295</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="I82"/>
     </row>
     <row r="83">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>296</v>
+        <v>46</v>
       </c>
       <c r="C83" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D83" t="s">
-        <v>298</v>
-      </c>
-      <c r="E83"/>
+        <v>300</v>
+      </c>
+      <c r="E83" t="s">
+        <v>21</v>
+      </c>
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83" t="s">
-        <v>299</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="I83"/>
     </row>
     <row r="84">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C84" t="s">
-        <v>42</v>
+        <v>303</v>
       </c>
       <c r="D84" t="s">
-        <v>301</v>
-      </c>
-      <c r="E84"/>
+        <v>304</v>
+      </c>
+      <c r="E84" t="s">
+        <v>21</v>
+      </c>
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84" t="s">
-        <v>302</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="I84"/>
     </row>
     <row r="85">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C85" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="D85" t="s">
-        <v>304</v>
-      </c>
-      <c r="E85"/>
+        <v>307</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85" t="s">
-        <v>305</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="I85"/>
     </row>
     <row r="86">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>307</v>
-      </c>
-      <c r="E86"/>
+        <v>310</v>
+      </c>
+      <c r="E86" t="s">
+        <v>21</v>
+      </c>
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86" t="s">
-        <v>308</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="I86"/>
     </row>
     <row r="87">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C87" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>309</v>
-      </c>
-      <c r="E87"/>
+        <v>313</v>
+      </c>
+      <c r="E87" t="s">
+        <v>21</v>
+      </c>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87" t="s">
-        <v>310</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="I87"/>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88" t="s">
+        <v>316</v>
+      </c>
+      <c r="D88" t="s">
+        <v>317</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88" t="s">
+        <v>318</v>
+      </c>
+      <c r="I88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
